--- a/PersoanlProject_SFML/PS_SFMLFramework Bin/tables/Tower_Table_Edit_Mirror.xlsx
+++ b/PersoanlProject_SFML/PS_SFMLFramework Bin/tables/Tower_Table_Edit_Mirror.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Lee\Documents\SFML_personal\PersoanlProject_SFML\PS_SFMLFramework Bin\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F7825-C896-443B-8EA8-E4EA755A1EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF969A2-7B17-4D98-835C-5638FD74633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDCD011B-6758-4FF7-AC6E-8F4015868853}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -36,12 +36,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>attack duration</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -248,6 +242,50 @@
   </si>
   <si>
     <t>화산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수효과 전체 도트뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수효과 전체 슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깡뎀+스턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 내 슬로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,6 +293,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +350,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -339,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,11 +432,62 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -675,33 +797,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED93740-245E-4134-A34A-EE856CAADE1A}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="3.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="3.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4" style="6" customWidth="1"/>
-    <col min="9" max="10" width="4" style="5" customWidth="1"/>
-    <col min="11" max="11" width="3.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="3.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="3.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="10" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="4.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="10" customWidth="1"/>
+    <col min="10" max="15" width="4" style="10" customWidth="1"/>
+    <col min="16" max="18" width="3.125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="18.75" style="10" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="10" customWidth="1"/>
+    <col min="21" max="21" width="21.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,446 +836,1207 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="15">
+        <f>IFERROR(F2/K2, )</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F6" si="0">IFERROR(G2/H2, )</f>
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <f>L2</f>
+        <v>15</v>
+      </c>
+      <c r="L2" s="5">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M19" si="1">IFERROR(K2/3*2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3">
+    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E19" si="2">IFERROR(F3/K3, )</f>
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="H3" s="9">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ref="K3:K5" si="3">L3</f>
         <v>10</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="L3" s="5">
+        <v>10</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>19</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L4" s="5">
+        <v>10</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>15</v>
-      </c>
-      <c r="J4" s="5">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="G5" s="3">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="L5" s="5">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f ca="1">IFERROR(L6+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,11), " ")</f>
+        <v>30</v>
+      </c>
+      <c r="L6" s="5">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F7" s="8">
+        <f>IFERROR(G7/H7, )</f>
+        <v>6.25</v>
+      </c>
+      <c r="G7" s="3">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <f ca="1">IFERROR(L7+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,11), " ")</f>
+        <v>60</v>
+      </c>
+      <c r="L7" s="5">
+        <v>45</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F19" si="4">IFERROR(G8/H8, )</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f ca="1">IFERROR(L8+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
+        <v>80</v>
+      </c>
+      <c r="L8" s="5">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51282051282051289</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f ca="1">IFERROR(L9+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
+        <v>130</v>
+      </c>
+      <c r="L9" s="5">
+        <v>100</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <f ca="1">IFERROR(L10+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
+        <v>150</v>
+      </c>
+      <c r="L10" s="5">
+        <v>90</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <f ca="1">IFERROR(L11+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,11), " ")</f>
+        <v>30</v>
+      </c>
+      <c r="L11" s="5">
+        <v>20</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>2</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>60</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" ref="K12:K13" ca="1" si="5">IFERROR(L12+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
+        <v>90</v>
+      </c>
+      <c r="L12" s="5">
+        <v>60</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="3">
+        <v>150</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" ca="1" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L13" s="5">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>126.66666666666667</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
       </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>60</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <f ca="1">IFERROR(L14+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,11), " ")</f>
+        <v>60</v>
+      </c>
+      <c r="L14" s="5">
+        <v>50</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
       </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <f ca="1">IFERROR(L15+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
+        <v>160</v>
+      </c>
+      <c r="L15" s="5">
+        <v>100</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
       </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <f ca="1">IFERROR(L16+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,11), " ")</f>
+        <v>80</v>
+      </c>
+      <c r="L16" s="5">
+        <v>50</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G17" s="3">
         <v>60</v>
       </c>
+      <c r="H17" s="9">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" ref="K17:K19" ca="1" si="6">IFERROR(L17+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
+        <v>180</v>
+      </c>
+      <c r="L17" s="5">
+        <v>100</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="L18" s="5">
+        <v>80</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1">
         <v>17</v>
       </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="G19" s="3">
+        <v>140</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" ca="1" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="L19" s="5">
+        <v>150</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N19">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PersoanlProject_SFML/PS_SFMLFramework Bin/tables/Tower_Table_Edit_Mirror.xlsx
+++ b/PersoanlProject_SFML/PS_SFMLFramework Bin/tables/Tower_Table_Edit_Mirror.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Lee\Documents\SFML_personal\PersoanlProject_SFML\PS_SFMLFramework Bin\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF969A2-7B17-4D98-835C-5638FD74633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCBC29A-0322-450E-81C6-25A9C56E042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDCD011B-6758-4FF7-AC6E-8F4015868853}"/>
   </bookViews>
@@ -294,7 +294,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -410,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,10 +438,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -800,29 +797,27 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="3.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="10" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="10" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="4.875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="4.375" style="10" customWidth="1"/>
-    <col min="10" max="15" width="4" style="10" customWidth="1"/>
-    <col min="16" max="18" width="3.125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="18.75" style="10" customWidth="1"/>
-    <col min="20" max="20" width="17.125" style="10" customWidth="1"/>
-    <col min="21" max="21" width="21.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="10"/>
+    <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
+    <col min="9" max="9" width="4.375" customWidth="1"/>
+    <col min="10" max="15" width="4" customWidth="1"/>
+    <col min="16" max="18" width="3.125" customWidth="1"/>
+    <col min="19" max="19" width="18.75" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -887,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -900,7 +895,7 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <f>IFERROR(F2/K2, )</f>
         <v>0.33333333333333331</v>
       </c>
@@ -931,10 +926,10 @@
         <f t="shared" ref="M2:M19" si="1">IFERROR(K2/3*2,0)</f>
         <v>10</v>
       </c>
-      <c r="N2" s="11">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11">
+      <c r="N2" s="10">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10">
         <v>0</v>
       </c>
       <c r="P2" s="1">
@@ -946,7 +941,7 @@
       <c r="R2" s="1">
         <v>4</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -956,7 +951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -969,7 +964,7 @@
       <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E19" si="2">IFERROR(F3/K3, )</f>
         <v>0.4</v>
       </c>
@@ -1000,10 +995,10 @@
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="N3" s="11">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
         <v>0</v>
       </c>
       <c r="P3" s="1">
@@ -1015,7 +1010,7 @@
       <c r="R3" s="1">
         <v>2</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="T3" s="1" t="s">
@@ -1025,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1038,7 +1033,7 @@
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
@@ -1069,10 +1064,10 @@
         <f t="shared" si="1"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
         <v>0</v>
       </c>
       <c r="P4" s="1">
@@ -1084,7 +1079,7 @@
       <c r="R4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="17" t="s">
         <v>24</v>
       </c>
       <c r="T4" s="1" t="s">
@@ -1094,7 +1089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1107,7 +1102,7 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
@@ -1138,10 +1133,10 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
         <v>0</v>
       </c>
       <c r="P5" s="1">
@@ -1153,7 +1148,7 @@
       <c r="R5" s="1">
         <v>2</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="17" t="s">
         <v>29</v>
       </c>
       <c r="T5" s="1" t="s">
@@ -1163,7 +1158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1174,7 +1169,7 @@
       <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f t="shared" ca="1" si="2"/>
         <v>0.41666666666666669</v>
       </c>
@@ -1183,10 +1178,10 @@
         <v>12.5</v>
       </c>
       <c r="G6" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H6" s="9">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="4">
         <v>1.5</v>
@@ -1205,10 +1200,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="N6" s="11">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10">
         <v>0</v>
       </c>
       <c r="P6" s="1">
@@ -1218,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1235,7 +1230,7 @@
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>0.10416666666666667</v>
       </c>
@@ -1266,10 +1261,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
         <v>0.1</v>
       </c>
       <c r="P7" s="1">
@@ -1279,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1296,19 +1291,19 @@
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41666666666666669</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F19" si="4">IFERROR(G8/H8, )</f>
-        <v>33.333333333333336</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G8" s="3">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H8" s="9">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="I8" s="4">
         <v>2.5</v>
@@ -1327,10 +1322,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
         <v>0</v>
       </c>
       <c r="P8" s="1">
@@ -1340,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1357,19 +1352,19 @@
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51282051282051289</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="4"/>
-        <v>66.666666666666671</v>
+        <v>80</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="9">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="I9" s="4">
         <v>8</v>
@@ -1388,10 +1383,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>86.666666666666671</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="10">
         <v>1</v>
       </c>
       <c r="P9" s="1">
@@ -1401,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="1"/>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="T9" s="1"/>
@@ -1409,7 +1404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1420,7 +1415,7 @@
       <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>0.1</v>
       </c>
@@ -1451,10 +1446,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>100</v>
       </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
         <v>0.2</v>
       </c>
       <c r="P10" s="1">
@@ -1464,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1481,7 +1476,7 @@
       <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>0.5</v>
       </c>
@@ -1512,10 +1507,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
         <v>0</v>
       </c>
       <c r="P11" s="1">
@@ -1525,13 +1520,13 @@
         <v>2</v>
       </c>
       <c r="R11" s="1"/>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="17" t="s">
         <v>46</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1542,41 +1537,41 @@
       <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ref="K12:K13" ca="1" si="5">IFERROR(L12+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L12" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="O12" s="11">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="N12" s="10">
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
         <v>0</v>
       </c>
       <c r="P12" s="1">
@@ -1586,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="1"/>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="17" t="s">
         <v>47</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1603,9 +1598,9 @@
       <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52631578947368418</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="4"/>
@@ -1625,19 +1620,19 @@
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L13" s="5">
         <v>100</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>126.66666666666667</v>
-      </c>
-      <c r="N13" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="O13" s="11">
+        <v>120</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3</v>
+      </c>
+      <c r="O13" s="10">
         <v>0</v>
       </c>
       <c r="P13" s="1">
@@ -1647,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="1"/>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="17" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="1"/>
@@ -1655,7 +1650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1666,7 +1661,7 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" ca="1" si="2"/>
         <v>0.5</v>
       </c>
@@ -1697,10 +1692,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10">
         <v>0</v>
       </c>
       <c r="P14" s="1">
@@ -1710,13 +1705,13 @@
         <v>1</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1727,7 +1722,7 @@
       <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <f t="shared" ca="1" si="2"/>
         <v>9.375E-2</v>
       </c>
@@ -1758,10 +1753,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>106.66666666666667</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
         <v>0</v>
       </c>
       <c r="P15" s="1">
@@ -1771,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="T15" s="1"/>
@@ -1779,7 +1774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1790,7 +1785,7 @@
       <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <f t="shared" ca="1" si="2"/>
         <v>0.125</v>
       </c>
@@ -1821,10 +1816,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
         <v>0</v>
       </c>
       <c r="P16" s="1">
@@ -1834,13 +1829,13 @@
         <v>2</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="17" t="s">
         <v>56</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1851,7 +1846,7 @@
       <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <f t="shared" ca="1" si="2"/>
         <v>0.16666666666666666</v>
       </c>
@@ -1882,10 +1877,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>120</v>
       </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
         <v>0</v>
       </c>
       <c r="P17" s="1">
@@ -1895,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="17" t="s">
         <v>58</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1912,7 +1907,7 @@
       <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
@@ -1943,10 +1938,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>106.66666666666667</v>
       </c>
-      <c r="N18" s="11">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
         <v>0</v>
       </c>
       <c r="P18" s="1">
@@ -1964,7 +1959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1975,7 +1970,7 @@
       <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <f t="shared" ca="1" si="2"/>
         <v>0.10606060606060606</v>
       </c>
@@ -2006,10 +2001,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>220</v>
       </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
         <v>0</v>
       </c>
       <c r="P19" s="1">

--- a/PersoanlProject_SFML/PS_SFMLFramework Bin/tables/Tower_Table_Edit_Mirror.xlsx
+++ b/PersoanlProject_SFML/PS_SFMLFramework Bin/tables/Tower_Table_Edit_Mirror.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Lee\Documents\SFML_personal\PersoanlProject_SFML\PS_SFMLFramework Bin\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCBC29A-0322-450E-81C6-25A9C56E042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FFAC62-DD3B-4B75-AB72-0B028A3DBFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDCD011B-6758-4FF7-AC6E-8F4015868853}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1600,14 +1600,14 @@
       </c>
       <c r="E13" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55555555555555558</v>
+        <v>7.4074074074074084E-2</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="G13" s="3">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H13" s="9">
         <v>1.5</v>
@@ -1663,34 +1663,34 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="G14" s="3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H14" s="9">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="7">
         <f ca="1">IFERROR(L14+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,11), " ")</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L14" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N14" s="10">
         <v>0</v>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E15" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>9.375E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="4"/>
@@ -1744,14 +1744,14 @@
       </c>
       <c r="K15" s="7">
         <f ca="1">IFERROR(L15+VLOOKUP(INDIRECT("A"&amp;ROW()),$B$1:$L$19,10), " ")</f>
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L15" s="5">
         <v>100</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>106.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
